--- a/biology/Botanique/Tillandsia_adpressiflora/Tillandsia_adpressiflora.xlsx
+++ b/biology/Botanique/Tillandsia_adpressiflora/Tillandsia_adpressiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia adpressiflora est une espèce de plantes de la famille des Bromeliaceae. L'épithète adpressiflora signifie « à fleur appressée, appliquée ».
 </t>
@@ -511,12 +523,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia adpressiflora Mez in C.DC., Monogr. Phan. 9: 661, n° 2 (1896)
-Diagnose originale[1]  :
+Diagnose originale  :
 « foliis dense lepidibus pallidis obtectis; inflorescentia centrali, ample panniculata[sic] ; spicis 2-6-floris perlaxis, ramulis fere rectis ; bracteolis internodia subaequantibus axes nullo modo obtegentibus nec imbricatis, sepala involventibus et superantibus, dorso subglabris et prominenti-venosis ; floribus strictissime erectis ; sepalis fere aequaliter liberis, apice breviter acutis; petalis tubulose erectis, violaceis ; staminibus absque dubio petala superantibus ; stylo gracili. »
-Type : leg. Wullschlagel, n° 1335 ; « Guyana balava ad Bergendal » ;  Herb. Brux. Goetting[1].
+Type : leg. Wullschlagel, n° 1335 ; « Guyana balava ad Bergendal » ;  Herb. Brux. Goetting.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia adpressiflora est une espèce de plante vivace herbacée, en rosette monocarpique vivace par ses rejets latéraux, épiphyte[1], saxicole[2] ou terrestre[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia adpressiflora est une espèce de plante vivace herbacée, en rosette monocarpique vivace par ses rejets latéraux, épiphyte, saxicole ou terrestre.
 </t>
         </is>
       </c>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce se rencontre en Amérique du sud, au Brésil[2], en Colombie[2], en Équateur, en Guyane française[2], dans le sud du Pérou[2], au Surinam[1],[2] et au Venezuela[2].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre en Amérique du sud, au Brésil, en Colombie, en Équateur, en Guyane française, dans le sud du Pérou, au Surinam, et au Venezuela.
 </t>
         </is>
       </c>
@@ -608,9 +629,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans les savanes et lisières forestières[2] entre 100 et 625 mètres d'altitude[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans les savanes et lisières forestières entre 100 et 625 mètres d'altitude. 
 </t>
         </is>
       </c>
@@ -640,6 +663,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
